--- a/src/main/resources/testdata/EngineeringOfficesData.xlsx
+++ b/src/main/resources/testdata/EngineeringOfficesData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\MOMRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\momra-e2e-tests\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1734D3B8-F711-418E-AEBA-BB358EB5243D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAB154-F7F6-4F79-906D-65639FD64A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF483303-612B-4D37-B2F2-EEA758B6E25E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>ValidateOnTableLabelsAndColumnsOrder</t>
+  </si>
+  <si>
+    <t>إسم المكتب الهندسى</t>
+  </si>
+  <si>
+    <t>رقم المكتب الهندسى</t>
+  </si>
+  <si>
+    <t>الأمانة</t>
+  </si>
+  <si>
+    <t>البلدية</t>
+  </si>
+  <si>
+    <t>عدد المراقبين</t>
+  </si>
+  <si>
+    <t>الطاقة الإستيعابية (عدد الأسّرة)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +454,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +504,27 @@
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdata/EngineeringOfficesData.xlsx
+++ b/src/main/resources/testdata/EngineeringOfficesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\momra-e2e-tests\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAB154-F7F6-4F79-906D-65639FD64A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A44E4-D630-45FC-BC2E-43EB5E053076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF483303-612B-4D37-B2F2-EEA758B6E25E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -84,7 +84,14 @@
     <t>عدد المراقبين</t>
   </si>
   <si>
-    <t>الطاقة الإستيعابية (عدد الأسّرة)</t>
+    <t>OfficeActionsLabel</t>
+  </si>
+  <si>
+    <t>الإجراءات</t>
+  </si>
+  <si>
+    <t>الطاقة الإستيعابية
+(عدد الأسّرة)</t>
   </si>
 </sst>
 </file>
@@ -129,13 +136,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C0D2C-39F0-4341-A1F8-35B8DCD63F91}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +472,11 @@
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +507,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -519,8 +533,11 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
